--- a/jyx2/Assets/Mods/JYX2/Configs/Lua物品.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/Lua物品.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67659703-42E9-46E1-AD30-5D19DA4BCA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC89217D-229A-438A-88BD-D1E15F11201F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="410" yWindow="3320" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="4740" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="643">
   <si>
     <t>Id</t>
   </si>
@@ -1572,6 +1572,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>神</t>
@@ -1590,6 +1591,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>雕</t>
@@ -1608,6 +1610,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>侠</t>
@@ -1994,10 +1997,6 @@
   </si>
   <si>
     <t>L_number</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>L_number,L_number[]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2026,6 +2025,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2038,6 +2038,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2102,7 +2103,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2117,7 +2118,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
@@ -2471,9 +2471,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="AX4" sqref="AX4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2645,12 +2645,12 @@
       <c r="A3" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>643</v>
+      <c r="B3" s="8" t="s">
+        <v>642</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="9" t="s">
-        <v>643</v>
+      <c r="D3" s="8" t="s">
+        <v>642</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>641</v>
@@ -2785,7 +2785,7 @@
       <c r="AW3" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="AX3" s="8" t="s">
+      <c r="AX3" s="4" t="s">
         <v>642</v>
       </c>
     </row>
